--- a/src/main/resources/source.xlsx
+++ b/src/main/resources/source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Defalt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\Programming\Java\FilesConverterAlfaBank\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1781AFC0-EB09-4A64-8AB8-77D20839CE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A08B7-95D4-4CBD-B721-A6956789CACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{54144D5D-05B9-48BB-B37E-A0194535AAB7}"/>
   </bookViews>
@@ -474,18 +474,17 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.54296875" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
